--- a/Reporting_template.xlsx
+++ b/Reporting_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\al002162\Dashboards\libraryOfElasticities\Dash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\RESEARCH\MATRIX OF ELASTICITIES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="198">
   <si>
     <t>Reference within the paper</t>
   </si>
@@ -654,15 +654,6 @@
     <t>As the estimates are local/marginal effects and sample specific, this information helps to get a sense of how the marginal effect may vary depending on the level of the "Regulatory ratio". In an empirical paper, it is usually provided in the Summary Statistics.</t>
   </si>
   <si>
-    <t>FRAME Reporting Template [If the impact estimate is based on a macro-model]</t>
-  </si>
-  <si>
-    <t>FRAME Reporting Template [If the impact estimate is based on an empirical analysis]</t>
-  </si>
-  <si>
-    <t>FRAME Reporting  [General Information on the Study/Paper/Article]</t>
-  </si>
-  <si>
     <t>The study/article/paper must be available online to be referenced in the FRAME.</t>
   </si>
   <si>
@@ -676,6 +667,27 @@
   </si>
   <si>
     <t>This is the outcome of the standardization formulae, as it will ultimately be reported in the FRAME distributions.</t>
+  </si>
+  <si>
+    <t>Disclosure statement</t>
+  </si>
+  <si>
+    <t>Indicates whether the authors of the study had relevant or material financial interests that relate to their analysis (eg sponsored or commissioned research by lobbying groups)</t>
+  </si>
+  <si>
+    <t>Commissioned</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>FRAME Reporting - General information on the study</t>
+  </si>
+  <si>
+    <t>FRAME Reporting - Quantitative impact, if assessed based on a macro-model</t>
+  </si>
+  <si>
+    <t>FRAME Reporting - Quantitative impact, if estimated based on an empirical analysis</t>
   </si>
 </sst>
 </file>
@@ -1888,6 +1900,93 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,108 +2026,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2053,6 +2050,15 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2071,7 +2077,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,13 +2378,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:S12"/>
+  <dimension ref="B1:S13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2410,7 @@
   <sheetData>
     <row r="1" spans="2:19" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="93" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -2486,7 +2498,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="52"/>
       <c r="H5" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I5" s="113"/>
       <c r="L5" s="12"/>
@@ -2544,10 +2556,10 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="110"/>
       <c r="C8" s="106" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="D8" s="107"/>
       <c r="E8" s="108"/>
@@ -2556,7 +2568,7 @@
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="15" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="I8" s="113"/>
       <c r="L8" s="12"/>
@@ -2568,18 +2580,20 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:19" s="3" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="110"/>
       <c r="C9" s="106" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="D9" s="107"/>
       <c r="E9" s="108"/>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="50"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="I9" s="113"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -2590,22 +2604,18 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="2:19" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" s="3" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="110"/>
-      <c r="C10" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="112" t="s">
-        <v>164</v>
-      </c>
+      <c r="C10" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="113"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -2618,16 +2628,20 @@
     </row>
     <row r="11" spans="2:19" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="110"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="113"/>
+      <c r="C11" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="112" t="s">
+        <v>164</v>
+      </c>
       <c r="I11" s="113"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -2638,19 +2652,19 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="2:19" s="3" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="111"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
+    <row r="12" spans="2:19" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="110"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -2660,38 +2674,61 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
+    <row r="13" spans="2:19" s="3" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="111"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C10:D12"/>
+    <mergeCell ref="C11:D13"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I4:I13"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I4:I12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$E$8:$E$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F12</xm:sqref>
+          <xm:sqref>F13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$8:$F$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F8</xm:sqref>
+          <xm:sqref>F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -2703,19 +2740,25 @@
           <x14:formula1>
             <xm:f>Menus!$M$8:$M$13</xm:f>
           </x14:formula1>
-          <xm:sqref>F9</xm:sqref>
+          <xm:sqref>F10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$B$8:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>F10</xm:sqref>
+          <xm:sqref>F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$C$8:$C$22</xm:f>
           </x14:formula1>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Menus!$V$8:$V$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2734,7 +2777,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22:H23"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2752,7 +2795,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="93" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -2769,41 +2812,41 @@
     </row>
     <row r="4" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="120"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="44" t="str">
-        <f>'General Information'!F10</f>
-        <v>Click here to scroll down the menu</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
-    </row>
-    <row r="6" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="45" t="str">
         <f>'General Information'!F11</f>
         <v>Click here to scroll down the menu</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="F5" s="152" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
+    </row>
+    <row r="6" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="45" t="str">
+        <f>'General Information'!F12</f>
+        <v>Click here to scroll down the menu</v>
+      </c>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="103" t="s">
         <v>85</v>
       </c>
@@ -2816,16 +2859,16 @@
       </c>
     </row>
     <row r="8" spans="2:9" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="151"/>
+      <c r="E8" s="130"/>
       <c r="F8" s="33" t="s">
         <v>103</v>
       </c>
@@ -2833,12 +2876,12 @@
       <c r="H8" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="133"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="147"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="141" t="s">
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="142" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -2848,15 +2891,15 @@
         <v>103</v>
       </c>
       <c r="G9" s="24"/>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="129"/>
+      <c r="I9" s="133"/>
     </row>
     <row r="10" spans="2:9" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="147"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="142"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="25" t="s">
         <v>119</v>
       </c>
@@ -2864,15 +2907,15 @@
         <v>103</v>
       </c>
       <c r="G10" s="24"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="129"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="133"/>
     </row>
     <row r="11" spans="2:9" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="147"/>
-      <c r="C11" s="130" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="131"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="26" t="s">
         <v>93</v>
       </c>
@@ -2881,12 +2924,12 @@
       <c r="H11" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="136"/>
+      <c r="I11" s="140"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="147"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="26" t="s">
         <v>94</v>
       </c>
@@ -2895,12 +2938,12 @@
       <c r="H12" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="129"/>
+      <c r="I12" s="133"/>
     </row>
     <row r="13" spans="2:9" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="147"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="135"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="27" t="s">
         <v>82</v>
       </c>
@@ -2909,15 +2952,15 @@
       <c r="H13" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="137"/>
+      <c r="I13" s="141"/>
     </row>
     <row r="14" spans="2:9" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="147"/>
-      <c r="C14" s="138" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="32" t="s">
         <v>103</v>
       </c>
@@ -2928,42 +2971,42 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:9" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="147"/>
-      <c r="C15" s="152" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="153"/>
-      <c r="E15" s="151"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="130"/>
       <c r="F15" s="33" t="s">
         <v>103</v>
       </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="143" t="s">
+      <c r="H15" s="119" t="s">
         <v>168</v>
       </c>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:9" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="147"/>
-      <c r="C16" s="138" t="s">
+      <c r="B16" s="126"/>
+      <c r="C16" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="30" t="s">
         <v>103</v>
       </c>
       <c r="G16" s="37"/>
-      <c r="H16" s="145"/>
+      <c r="H16" s="144"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="147"/>
-      <c r="C17" s="138" t="s">
+      <c r="B17" s="126"/>
+      <c r="C17" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="30" t="s">
         <v>103</v>
       </c>
@@ -2974,38 +3017,38 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="147"/>
-      <c r="C18" s="138" t="s">
+      <c r="B18" s="126"/>
+      <c r="C18" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="31"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="143" t="s">
+      <c r="H18" s="119" t="s">
         <v>158</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="147"/>
-      <c r="C19" s="138" t="s">
+      <c r="B19" s="126"/>
+      <c r="C19" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="31"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="144"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="147"/>
-      <c r="C20" s="138" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="31"/>
       <c r="G20" s="47"/>
       <c r="H20" s="22" t="s">
@@ -3014,52 +3057,52 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="360.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="147"/>
-      <c r="C21" s="138" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="31"/>
       <c r="G21" s="48"/>
       <c r="H21" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="147"/>
-      <c r="C22" s="138" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="31"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="143" t="s">
-        <v>191</v>
+      <c r="H22" s="119" t="s">
+        <v>188</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="147"/>
-      <c r="C23" s="138" t="s">
+      <c r="B23" s="126"/>
+      <c r="C23" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="31"/>
       <c r="G23" s="90"/>
-      <c r="H23" s="144"/>
+      <c r="H23" s="120"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="147"/>
-      <c r="C24" s="138" t="s">
+      <c r="B24" s="126"/>
+      <c r="C24" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="30" t="s">
         <v>103</v>
       </c>
@@ -3070,12 +3113,12 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="147"/>
-      <c r="C25" s="138" t="s">
+      <c r="B25" s="126"/>
+      <c r="C25" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="30" t="s">
         <v>103</v>
       </c>
@@ -3086,12 +3129,12 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="147"/>
-      <c r="C26" s="138" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="30" t="s">
         <v>103</v>
       </c>
@@ -3102,12 +3145,12 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="147"/>
-      <c r="C27" s="138" t="s">
+      <c r="B27" s="126"/>
+      <c r="C27" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="30" t="s">
         <v>103</v>
       </c>
@@ -3118,12 +3161,12 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="147"/>
-      <c r="C28" s="138" t="s">
+      <c r="B28" s="126"/>
+      <c r="C28" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="30" t="s">
         <v>103</v>
       </c>
@@ -3134,39 +3177,46 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" s="3" customFormat="1" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="147"/>
-      <c r="C29" s="154" t="s">
+      <c r="B29" s="126"/>
+      <c r="C29" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="34"/>
       <c r="G29" s="49"/>
-      <c r="H29" s="143" t="s">
-        <v>192</v>
+      <c r="H29" s="119" t="s">
+        <v>189</v>
       </c>
       <c r="I29" s="92"/>
     </row>
     <row r="30" spans="2:9" s="3" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="148"/>
-      <c r="C30" s="154" t="s">
+      <c r="B30" s="127"/>
+      <c r="C30" s="121" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="34"/>
       <c r="G30" s="49"/>
-      <c r="H30" s="157"/>
+      <c r="H30" s="124"/>
       <c r="I30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="C11:D13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="B8:B30"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:E8"/>
@@ -3183,19 +3233,12 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="C11:D13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3291,7 +3334,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3309,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="93" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -3326,44 +3369,44 @@
     </row>
     <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="120"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="44" t="str">
-        <f>'General Information'!F10</f>
-        <v>Click here to scroll down the menu</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="121" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="45" t="str">
         <f>'General Information'!F11</f>
         <v>Click here to scroll down the menu</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="F5" s="152" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="151"/>
+      <c r="E6" s="45" t="str">
+        <f>'General Information'!F12</f>
+        <v>Click here to scroll down the menu</v>
+      </c>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="157"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="103" t="s">
         <v>85</v>
       </c>
@@ -3376,7 +3419,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="158" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="77" t="s">
@@ -3396,11 +3439,11 @@
       <c r="I8" s="82"/>
     </row>
     <row r="9" spans="2:10" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="164"/>
-      <c r="C9" s="171" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="60" t="s">
         <v>93</v>
       </c>
@@ -3409,12 +3452,12 @@
       <c r="H9" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="161"/>
+      <c r="I9" s="175"/>
     </row>
     <row r="10" spans="2:10" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="164"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="60" t="s">
         <v>94</v>
       </c>
@@ -3423,12 +3466,12 @@
       <c r="H10" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="177"/>
+      <c r="I10" s="176"/>
     </row>
     <row r="11" spans="2:10" s="3" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="164"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="62" t="s">
         <v>82</v>
       </c>
@@ -3437,15 +3480,15 @@
       <c r="H11" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="162"/>
+      <c r="I11" s="177"/>
     </row>
     <row r="12" spans="2:10" s="3" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="164"/>
-      <c r="C12" s="158" t="s">
+      <c r="B12" s="159"/>
+      <c r="C12" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="168"/>
       <c r="F12" s="85" t="s">
         <v>103</v>
       </c>
@@ -3456,42 +3499,42 @@
       <c r="I12" s="64"/>
     </row>
     <row r="13" spans="2:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="164"/>
-      <c r="C13" s="166" t="s">
+      <c r="B13" s="159"/>
+      <c r="C13" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="168"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="163"/>
       <c r="F13" s="86" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="65"/>
-      <c r="H13" s="169" t="s">
+      <c r="H13" s="164" t="s">
         <v>184</v>
       </c>
       <c r="I13" s="66"/>
     </row>
     <row r="14" spans="2:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="164"/>
-      <c r="C14" s="158" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
       <c r="F14" s="87" t="s">
         <v>103</v>
       </c>
       <c r="G14" s="67"/>
-      <c r="H14" s="170"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="64"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="164"/>
-      <c r="C15" s="158" t="s">
+      <c r="B15" s="159"/>
+      <c r="C15" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="160"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
       <c r="F15" s="87" t="s">
         <v>103</v>
       </c>
@@ -3502,38 +3545,38 @@
       <c r="I15" s="64"/>
     </row>
     <row r="16" spans="2:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="164"/>
-      <c r="C16" s="158" t="s">
+      <c r="B16" s="159"/>
+      <c r="C16" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
       <c r="F16" s="84"/>
       <c r="G16" s="72"/>
-      <c r="H16" s="161" t="s">
+      <c r="H16" s="175" t="s">
         <v>159</v>
       </c>
       <c r="I16" s="64"/>
     </row>
     <row r="17" spans="2:9" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="164"/>
-      <c r="C17" s="158" t="s">
+      <c r="B17" s="159"/>
+      <c r="C17" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="168"/>
       <c r="F17" s="84"/>
       <c r="G17" s="72"/>
-      <c r="H17" s="162"/>
+      <c r="H17" s="177"/>
       <c r="I17" s="64"/>
     </row>
     <row r="18" spans="2:9" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="164"/>
-      <c r="C18" s="158" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="160"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
       <c r="F18" s="84"/>
       <c r="G18" s="72"/>
       <c r="H18" s="61" t="s">
@@ -3542,52 +3585,52 @@
       <c r="I18" s="64"/>
     </row>
     <row r="19" spans="2:9" s="3" customFormat="1" ht="359.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="164"/>
-      <c r="C19" s="158" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
       <c r="F19" s="84"/>
       <c r="G19" s="73"/>
       <c r="H19" s="61" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I19" s="64"/>
     </row>
     <row r="20" spans="2:9" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="164"/>
-      <c r="C20" s="158" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
       <c r="F20" s="84"/>
       <c r="G20" s="72"/>
-      <c r="H20" s="161" t="s">
-        <v>193</v>
+      <c r="H20" s="175" t="s">
+        <v>190</v>
       </c>
       <c r="I20" s="64"/>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="164"/>
-      <c r="C21" s="158" t="s">
+      <c r="B21" s="159"/>
+      <c r="C21" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="84"/>
       <c r="G21" s="91"/>
-      <c r="H21" s="162"/>
+      <c r="H21" s="177"/>
       <c r="I21" s="64"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="164"/>
-      <c r="C22" s="158" t="s">
+      <c r="B22" s="159"/>
+      <c r="C22" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="160"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
       <c r="F22" s="87" t="s">
         <v>103</v>
       </c>
@@ -3598,12 +3641,12 @@
       <c r="I22" s="64"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="164"/>
-      <c r="C23" s="158" t="s">
+      <c r="B23" s="159"/>
+      <c r="C23" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="159"/>
-      <c r="E23" s="160"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
       <c r="F23" s="87" t="s">
         <v>103</v>
       </c>
@@ -3614,12 +3657,12 @@
       <c r="I23" s="64"/>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="164"/>
-      <c r="C24" s="158" t="s">
+      <c r="B24" s="159"/>
+      <c r="C24" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="160"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
       <c r="F24" s="87" t="s">
         <v>103</v>
       </c>
@@ -3630,12 +3673,12 @@
       <c r="I24" s="64"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="164"/>
-      <c r="C25" s="158" t="s">
+      <c r="B25" s="159"/>
+      <c r="C25" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
       <c r="F25" s="87" t="s">
         <v>103</v>
       </c>
@@ -3646,12 +3689,12 @@
       <c r="I25" s="64"/>
     </row>
     <row r="26" spans="2:9" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="164"/>
-      <c r="C26" s="158" t="s">
+      <c r="B26" s="159"/>
+      <c r="C26" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
       <c r="F26" s="87" t="s">
         <v>103</v>
       </c>
@@ -3662,7 +3705,7 @@
       <c r="I26" s="64"/>
     </row>
     <row r="27" spans="2:9" s="3" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="165"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="178" t="s">
         <v>170</v>
       </c>
@@ -3677,6 +3720,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="B8:B27"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C5:D5"/>
@@ -3693,18 +3748,6 @@
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F5:I6"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="C21:E21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3781,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W27"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3855,7 +3898,9 @@
       <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -3922,7 +3967,9 @@
       <c r="U8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="2:23" ht="30.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -3986,6 +4033,9 @@
       <c r="U9" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="V9" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="10" spans="2:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4047,6 +4097,9 @@
       </c>
       <c r="U10" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="45" x14ac:dyDescent="0.2">
